--- a/Data/Exchange Rates.xlsx
+++ b/Data/Exchange Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\LCL Destination Charges Comparison Tool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338236A-6FED-4107-A973-9A740D2ABDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C46571-3CA2-4F05-BCAD-2609DCB69D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F70B2AE9-80DD-442B-A8D2-37512504D055}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Country</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6BED59-1171-4BCC-9362-7EC31FCE0509}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,6 +816,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.73624641000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
